--- a/CARSEC_excel_Mirian.xlsx
+++ b/CARSEC_excel_Mirian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/namnguyen/Desktop/LAST MODIFICATIONS_CARSEC/2023-02-22-CARSECN-Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14EE4F38-80F2-A741-8A2F-5F624B5CA6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F86874-992D-6543-BC30-B8189935B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4000" windowWidth="17260" windowHeight="12600" firstSheet="4" activeTab="9" xr2:uid="{9F936394-A091-DF48-9863-4FBDAE59ACDE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9F936394-A091-DF48-9863-4FBDAE59ACDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="224">
   <si>
     <t>secc</t>
   </si>
@@ -66,18 +66,9 @@
     <t>ID</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Axil</t>
   </si>
   <si>
-    <t>0.30</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
@@ -129,12 +120,6 @@
     <t>Punto_Final</t>
   </si>
   <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.00123</t>
-  </si>
-  <si>
     <t>Punto_6</t>
   </si>
   <si>
@@ -724,13 +709,19 @@
   </si>
   <si>
     <t>15349.0</t>
+  </si>
+  <si>
+    <t>MALOLOS-SECTION 157001-INICIO</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -740,6 +731,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -765,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,6 +775,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,18 +1252,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EFBDAF-AF9E-ED4E-8AF9-CAA84D226E8D}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1276,75 +1277,79 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
         <v>50000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>420000</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1670000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1395000</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1358,8 +1363,9 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1367,8 +1373,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1376,8 +1383,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1385,8 +1393,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1394,8 +1403,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1403,8 +1413,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1412,8 +1423,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1421,6 +1433,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1431,780 +1444,785 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8354C768-CD20-4A4F-8234-94ED5938AB40}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" t="s">
-        <v>145</v>
+        <v>222</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" t="s">
-        <v>148</v>
+        <v>222</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" t="s">
-        <v>145</v>
+        <v>222</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" t="s">
-        <v>148</v>
+        <v>222</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" t="s">
-        <v>152</v>
+        <v>222</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" t="s">
-        <v>155</v>
+        <v>222</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" t="s">
-        <v>158</v>
+        <v>222</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" t="s">
-        <v>161</v>
+        <v>222</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" t="s">
-        <v>166</v>
+        <v>222</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" t="s">
-        <v>169</v>
+        <v>222</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" t="s">
-        <v>172</v>
+        <v>222</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" t="s">
-        <v>178</v>
+        <v>222</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
+        <v>222</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" t="s">
-        <v>184</v>
+        <v>222</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" t="s">
-        <v>187</v>
+        <v>222</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" t="s">
-        <v>190</v>
+        <v>222</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" t="s">
-        <v>193</v>
+        <v>222</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" t="s">
-        <v>196</v>
+        <v>222</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" t="s">
-        <v>199</v>
+        <v>222</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>200</v>
-      </c>
-      <c r="C40" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>196</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" t="s">
-        <v>196</v>
+        <v>222</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" t="s">
-        <v>206</v>
+        <v>222</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" t="s">
-        <v>199</v>
+        <v>222</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" t="s">
-        <v>196</v>
+        <v>222</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" t="s">
-        <v>196</v>
+        <v>222</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" t="s">
-        <v>196</v>
+        <v>222</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" t="s">
-        <v>196</v>
+        <v>222</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" t="s">
-        <v>196</v>
+        <v>222</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D49" t="s">
-        <v>196</v>
+        <v>222</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" t="s">
-        <v>212</v>
+        <v>222</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" t="s">
-        <v>215</v>
+        <v>222</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>216</v>
-      </c>
-      <c r="C52" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>212</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>218</v>
-      </c>
-      <c r="C53" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>221</v>
-      </c>
-      <c r="C54" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>224</v>
-      </c>
-      <c r="C55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D55" t="s">
-        <v>226</v>
+        <v>222</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2216,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C90AFD-6400-4E4C-B66B-D2E03EAF941B}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:A67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2227,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -2238,7 +2256,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2247,12 +2265,12 @@
         <v>5150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -2261,12 +2279,12 @@
         <v>5150</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -2275,12 +2293,12 @@
         <v>4250</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -2289,12 +2307,12 @@
         <v>3000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -2308,7 +2326,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -2322,7 +2340,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -2331,12 +2349,12 @@
         <v>-3000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -2345,12 +2363,12 @@
         <v>-4250</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -2359,12 +2377,12 @@
         <v>-5150</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -2373,12 +2391,12 @@
         <v>-5150</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
@@ -2387,12 +2405,12 @@
         <v>1400</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
@@ -2401,12 +2419,12 @@
         <v>2650</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
@@ -2420,7 +2438,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
@@ -2434,7 +2452,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -2448,7 +2466,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
@@ -2462,7 +2480,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
@@ -2471,12 +2489,12 @@
         <v>-2650</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
@@ -2485,12 +2503,12 @@
         <v>-1400</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
@@ -2499,12 +2517,12 @@
         <v>-5088</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
@@ -2513,12 +2531,12 @@
         <v>-3138</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
@@ -2527,12 +2545,12 @@
         <v>-2934</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
@@ -2541,12 +2559,12 @@
         <v>-2711</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
@@ -2555,12 +2573,12 @@
         <v>-2625</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
@@ -2569,12 +2587,12 @@
         <v>2625</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
@@ -2583,12 +2601,12 @@
         <v>2711</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2">
         <v>26</v>
@@ -2597,12 +2615,12 @@
         <v>2934</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
@@ -2611,12 +2629,12 @@
         <v>3138</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
@@ -2625,12 +2643,12 @@
         <v>5088</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
@@ -2639,12 +2657,12 @@
         <v>5088</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
@@ -2653,12 +2671,12 @@
         <v>4038</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
@@ -2667,12 +2685,12 @@
         <v>3933</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2">
         <v>32</v>
@@ -2681,12 +2699,12 @@
         <v>3054</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2">
         <v>33</v>
@@ -2695,12 +2713,12 @@
         <v>2934</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
@@ -2714,7 +2732,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
@@ -2728,7 +2746,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
@@ -2742,7 +2760,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B38" s="2">
         <v>37</v>
@@ -2756,7 +2774,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B39" s="2">
         <v>38</v>
@@ -2770,7 +2788,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
@@ -2784,7 +2802,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
@@ -2798,7 +2816,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B42" s="2">
         <v>41</v>
@@ -2812,7 +2830,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2">
         <v>42</v>
@@ -2821,12 +2839,12 @@
         <v>-2934</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B44" s="2">
         <v>43</v>
@@ -2835,12 +2853,12 @@
         <v>-3054</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B45" s="2">
         <v>44</v>
@@ -2849,12 +2867,12 @@
         <v>-3933</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B46" s="2">
         <v>45</v>
@@ -2863,12 +2881,12 @@
         <v>-4038</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B47" s="2">
         <v>46</v>
@@ -2877,12 +2895,12 @@
         <v>-5088</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B48" s="2">
         <v>47</v>
@@ -2891,12 +2909,12 @@
         <v>-1425</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B49" s="2">
         <v>48</v>
@@ -2905,12 +2923,12 @@
         <v>1425</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B50" s="2">
         <v>49</v>
@@ -2919,12 +2937,12 @@
         <v>15707</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B51" s="2">
         <v>50</v>
@@ -2933,12 +2951,12 @@
         <v>2596</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B52" s="2">
         <v>51</v>
@@ -2947,12 +2965,12 @@
         <v>2711</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B53" s="2">
         <v>52</v>
@@ -2966,7 +2984,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B54" s="2">
         <v>53</v>
@@ -2980,7 +2998,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B55" s="2">
         <v>54</v>
@@ -2994,7 +3012,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B56" s="2">
         <v>55</v>
@@ -3008,7 +3026,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B57" s="2">
         <v>56</v>
@@ -3017,12 +3035,12 @@
         <v>-2711</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B58" s="2">
         <v>57</v>
@@ -3031,12 +3049,12 @@
         <v>-2596</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B59" s="2">
         <v>58</v>
@@ -3045,12 +3063,12 @@
         <v>-15707</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B60" s="2">
         <v>59</v>
@@ -3059,12 +3077,12 @@
         <v>-3438</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B61" s="2">
         <v>60</v>
@@ -3073,12 +3091,12 @@
         <v>-3225</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B62" s="2">
         <v>61</v>
@@ -3087,12 +3105,12 @@
         <v>-2425</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B63" s="2">
         <v>62</v>
@@ -3101,12 +3119,12 @@
         <v>-2212</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B64" s="2">
         <v>63</v>
@@ -3115,12 +3133,12 @@
         <v>3438</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B65" s="2">
         <v>64</v>
@@ -3129,12 +3147,12 @@
         <v>3225</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B66" s="2">
         <v>65</v>
@@ -3143,12 +3161,12 @@
         <v>2425</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B67" s="2">
         <v>66</v>
@@ -3157,7 +3175,7 @@
         <v>2212</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +3188,7 @@
   <dimension ref="A1:CC71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3180,249 +3198,249 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -6367,7 +6385,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6381,33 +6399,21 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -6523,8 +6529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97445B05-80D4-3549-97BB-94FE01F0EACF}">
   <dimension ref="A1:CC72"/>
   <sheetViews>
-    <sheetView topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6534,249 +6540,249 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BY1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
+      <c r="A2" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="B2" s="2">
         <v>11</v>
@@ -9800,8 +9806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493C24B7-6928-4903-A80F-9250700F3F6C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="I21" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9811,44 +9817,20 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3.8E-3</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3.8E-3</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3.8E-3</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9860,7 +9842,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9873,21 +9855,21 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3">
         <v>19</v>
@@ -9899,12 +9881,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3">
         <v>21</v>
@@ -9916,13 +9898,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B4" s="3">
         <v>23</v>
@@ -9934,12 +9916,12 @@
         <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B5" s="3">
         <v>25</v>
@@ -9951,12 +9933,12 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B6" s="3">
         <v>27</v>
@@ -9968,12 +9950,12 @@
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B7" s="3">
         <v>29</v>
@@ -9985,12 +9967,12 @@
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B8" s="3">
         <v>31</v>
@@ -10002,12 +9984,12 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B9" s="3">
         <v>33</v>
@@ -10019,12 +10001,12 @@
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B10" s="3">
         <v>35</v>
@@ -10036,12 +10018,12 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B11" s="3">
         <v>37</v>
@@ -10053,12 +10035,12 @@
         <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B12" s="3">
         <v>39</v>
@@ -10070,12 +10052,12 @@
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B13" s="3">
         <v>41</v>
@@ -10087,12 +10069,12 @@
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B14" s="3">
         <v>43</v>
@@ -10104,12 +10086,12 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B15" s="3">
         <v>45</v>
@@ -10121,12 +10103,12 @@
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B16" s="3">
         <v>47</v>
@@ -10138,12 +10120,12 @@
         <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B17" s="3">
         <v>49</v>
@@ -10155,12 +10137,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B18" s="3">
         <v>51</v>
@@ -10172,12 +10154,12 @@
         <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B19" s="3">
         <v>53</v>
@@ -10189,12 +10171,12 @@
         <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B20" s="3">
         <v>55</v>
@@ -10206,12 +10188,12 @@
         <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B21" s="3">
         <v>57</v>
@@ -10223,7 +10205,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -10236,7 +10218,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10246,98 +10228,98 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B2">
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B5">
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B6">
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B7">
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B8">
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B9">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -10350,7 +10332,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10365,51 +10347,31 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10417,6 +10379,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5a78b66b-3306-4f0b-bfa8-2621e44b30fb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="977388ab-36b3-4c7b-9e14-1530935029ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E445B6A4923CA4EB814131029F65E4E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bfede8f7d4c3051f13d5f718de997b78">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="977388ab-36b3-4c7b-9e14-1530935029ff" xmlns:ns3="5a78b66b-3306-4f0b-bfa8-2621e44b30fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb0f488cd5e8e2fd6bfd0abf5cd03bd1" ns2:_="" ns3:_="">
     <xsd:import namespace="977388ab-36b3-4c7b-9e14-1530935029ff"/>
@@ -10621,27 +10603,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5a78b66b-3306-4f0b-bfa8-2621e44b30fb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="977388ab-36b3-4c7b-9e14-1530935029ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60F8C3C-777F-41BF-8E51-6C7A2B1EB384}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C026F031-9EC7-43B3-973A-944A5A50D4D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5a78b66b-3306-4f0b-bfa8-2621e44b30fb"/>
+    <ds:schemaRef ds:uri="977388ab-36b3-4c7b-9e14-1530935029ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431E2775-62D5-44BF-8CF0-55316CBBBC95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10658,23 +10639,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C026F031-9EC7-43B3-973A-944A5A50D4D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5a78b66b-3306-4f0b-bfa8-2621e44b30fb"/>
-    <ds:schemaRef ds:uri="977388ab-36b3-4c7b-9e14-1530935029ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60F8C3C-777F-41BF-8E51-6C7A2B1EB384}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>